--- a/assets/files/excel/34512.xlsx
+++ b/assets/files/excel/34512.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8f9Q1e2Vo9MVvZpULKr7vvzgpXpySj5MmGYHyzQRtpwYP4XVeKBSSxu4IZB3S1Sc1tVfBQD4hSL+AGh8eId8uw==" workbookSaltValue="alkQqcy/pttRYsHsqqW+Wg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="u1F0w1FMjzdYSGUe7ju3jYhx792+MshMOf7URSKKsSRmfWOMXrdEkz34vuLpxeyCNm/VOFdh/7PzJzp8hn/FOQ==" workbookSaltValue="jrJ9wXh4SUsk5XXCCF8LZg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -1016,9 +1016,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,6 +1162,9 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1185,27 +1185,7 @@
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1539,7 +1519,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,10 +1594,7 @@
       <c r="C7" s="9">
         <v>140</v>
       </c>
-      <c r="D7" s="83">
-        <f>B7*C7</f>
-        <v>14000</v>
-      </c>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1629,10 +1606,7 @@
       <c r="C8" s="12">
         <v>45</v>
       </c>
-      <c r="D8" s="84">
-        <f t="shared" ref="D8:D9" si="0">B8*C8</f>
-        <v>2250</v>
-      </c>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
@@ -1644,10 +1618,7 @@
       <c r="C9" s="15">
         <v>500</v>
       </c>
-      <c r="D9" s="85">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -1655,10 +1626,7 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="86">
-        <f>SUM(D7:D9)</f>
-        <v>21250</v>
-      </c>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1697,10 +1665,7 @@
       <c r="E13" s="24">
         <v>-0.27</v>
       </c>
-      <c r="F13" s="87">
-        <f>(1+B13)*(1+C13)*(1+D13)*(1+E13)-1</f>
-        <v>-0.15684999999999982</v>
-      </c>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1718,10 +1683,7 @@
       <c r="E14" s="27">
         <v>-0.03</v>
       </c>
-      <c r="F14" s="88">
-        <f t="shared" ref="F14:F15" si="1">(1+B14)*(1+C14)*(1+D14)*(1+E14)-1</f>
-        <v>-1.44557500000001E-2</v>
-      </c>
+      <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
@@ -1739,10 +1701,7 @@
       <c r="E15" s="31">
         <v>0.05</v>
       </c>
-      <c r="F15" s="89">
-        <f t="shared" si="1"/>
-        <v>0.33953750000000027</v>
-      </c>
+      <c r="F15" s="88"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
@@ -1751,16 +1710,16 @@
       <c r="A18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="35"/>
@@ -1769,88 +1728,40 @@
       <c r="A19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="90">
-        <f>$B7*$C7*(1+B13)</f>
-        <v>15400.000000000002</v>
-      </c>
-      <c r="C19" s="91">
-        <f>B19*(1+C13)</f>
-        <v>15400.000000000002</v>
-      </c>
-      <c r="D19" s="91">
-        <f>C19*(1+D13)</f>
-        <v>16170.000000000002</v>
-      </c>
-      <c r="E19" s="92">
-        <f>D19*(1+E13)</f>
-        <v>11804.1</v>
-      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="93">
-        <f t="shared" ref="B20:B21" si="2">$B8*$C8*(1+B14)</f>
-        <v>2092.5</v>
-      </c>
-      <c r="C20" s="94">
-        <f t="shared" ref="C20:E21" si="3">B20*(1+C14)</f>
-        <v>1987.875</v>
-      </c>
-      <c r="D20" s="94">
-        <f t="shared" si="3"/>
-        <v>2286.0562499999996</v>
-      </c>
-      <c r="E20" s="84">
-        <f t="shared" si="3"/>
-        <v>2217.4745624999996</v>
-      </c>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="95">
-        <f t="shared" si="2"/>
-        <v>6750</v>
-      </c>
-      <c r="C21" s="96">
-        <f t="shared" si="3"/>
-        <v>7087.5</v>
-      </c>
-      <c r="D21" s="96">
-        <f t="shared" si="3"/>
-        <v>6378.75</v>
-      </c>
-      <c r="E21" s="97">
-        <f t="shared" si="3"/>
-        <v>6697.6875</v>
-      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="98">
-        <f t="shared" ref="B22:E22" si="4">SUM(B19:B21)</f>
-        <v>24242.5</v>
-      </c>
-      <c r="C22" s="99">
-        <f t="shared" si="4"/>
-        <v>24475.375</v>
-      </c>
-      <c r="D22" s="99">
-        <f t="shared" si="4"/>
-        <v>24834.806250000001</v>
-      </c>
-      <c r="E22" s="100">
-        <f t="shared" si="4"/>
-        <v>20719.262062499998</v>
-      </c>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1878,113 +1789,53 @@
       <c r="A25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="101">
-        <f>B19-$D7</f>
-        <v>1400.0000000000018</v>
-      </c>
-      <c r="C25" s="101">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="101">
-        <f t="shared" ref="D25:E25" si="5">D19-C19</f>
-        <v>770</v>
-      </c>
-      <c r="E25" s="102">
-        <f t="shared" si="5"/>
-        <v>-4365.9000000000015</v>
-      </c>
-      <c r="F25" s="103">
-        <f>E19-$D7</f>
-        <v>-2195.8999999999996</v>
-      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="94">
-        <f>B20-$D8</f>
-        <v>-157.5</v>
-      </c>
-      <c r="C26" s="94">
-        <f t="shared" ref="C26:E28" si="6">C20-B20</f>
-        <v>-104.625</v>
-      </c>
-      <c r="D26" s="94">
-        <f t="shared" si="6"/>
-        <v>298.18124999999964</v>
-      </c>
-      <c r="E26" s="104">
-        <f t="shared" si="6"/>
-        <v>-68.581687500000044</v>
-      </c>
-      <c r="F26" s="105">
-        <f>E20-$D8</f>
-        <v>-32.525437500000407</v>
-      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="106">
-        <f>B21-$D9</f>
-        <v>1750</v>
-      </c>
-      <c r="C27" s="106">
-        <f t="shared" si="6"/>
-        <v>337.5</v>
-      </c>
-      <c r="D27" s="106">
-        <f t="shared" si="6"/>
-        <v>-708.75</v>
-      </c>
-      <c r="E27" s="107">
-        <f t="shared" si="6"/>
-        <v>318.9375</v>
-      </c>
-      <c r="F27" s="108">
-        <f>E21-$D9</f>
-        <v>1697.6875</v>
-      </c>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="109">
-        <f>B22-$D10</f>
-        <v>2992.5</v>
-      </c>
-      <c r="C28" s="109">
-        <f t="shared" si="6"/>
-        <v>232.875</v>
-      </c>
-      <c r="D28" s="109">
-        <f t="shared" si="6"/>
-        <v>359.43125000000146</v>
-      </c>
-      <c r="E28" s="110">
-        <f t="shared" si="6"/>
-        <v>-4115.5441875000033</v>
-      </c>
-      <c r="F28" s="111">
-        <f>E22-$D10</f>
-        <v>-530.73793750000186</v>
-      </c>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L/REhNIBWZJ/vmmpRy1+/Axl2CRDW6wJfLkdATDsCRnVdn5Y9rooaIww+a1aSZP9p+nrDWvK1E+sUYvh2n/7wA==" saltValue="RtvgKGkomdxhpF3e1ShHXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -2001,7 +1852,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +1872,7 @@
       </c>
       <c r="C1" s="1" t="str">
         <f>IF(AND('Вложения в акции (решение)'!G13="верно",'Вложения в акции (решение)'!G25="верно",'Вложения в акции (решение)'!G28="верно"),"решена","не решена")</f>
-        <v>решена</v>
+        <v>не решена</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,13 +2012,13 @@
       <c r="E13" s="24">
         <v>-0.27</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="111">
         <f>(1+B13)*(1+C13)*(1+D13)*(1+E13)-1</f>
         <v>-0.15684999999999982</v>
       </c>
       <c r="G13" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!F13:F15)=SUM('Вложения в акции (решение)'!F13:F15),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(F13-'Вложения в акции'!F13)&lt;0.01,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2186,13 +2037,13 @@
       <c r="E14" s="27">
         <v>-0.03</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="71">
         <f t="shared" ref="F14:F15" si="1">(1+B14)*(1+C14)*(1+D14)*(1+E14)-1</f>
         <v>-1.44557500000001E-2</v>
       </c>
       <c r="G14" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!F14:F16)=SUM('Вложения в акции (решение)'!F14:F16),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(F14-'Вложения в акции'!F14)&lt;0.01,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2211,13 +2062,13 @@
       <c r="E15" s="31">
         <v>0.05</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="72">
         <f t="shared" si="1"/>
         <v>0.33953750000000027</v>
       </c>
       <c r="G15" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!F15:F17)=SUM('Вложения в акции (решение)'!F15:F17),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(F15-'Вложения в акции'!F15)&lt;0.01,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2227,16 +2078,16 @@
       <c r="A18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="35"/>
@@ -2289,19 +2140,19 @@
       <c r="A21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="78">
         <f t="shared" si="2"/>
         <v>6750</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="79">
         <f t="shared" si="3"/>
         <v>7087.5</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="79">
         <f t="shared" si="3"/>
         <v>6378.75</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="80">
         <f t="shared" si="3"/>
         <v>6697.6875</v>
       </c>
@@ -2311,19 +2162,19 @@
       <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <f t="shared" ref="B22:E22" si="4">SUM(B19:B21)</f>
         <v>24242.5</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="76">
         <f t="shared" si="4"/>
         <v>24475.375</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="76">
         <f t="shared" si="4"/>
         <v>24834.806250000001</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="77">
         <f t="shared" si="4"/>
         <v>20719.262062499998</v>
       </c>
@@ -2375,8 +2226,8 @@
         <v>-2195.8999999999996</v>
       </c>
       <c r="G25" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!F25:F27)=SUM('Вложения в акции (решение)'!F25:F27),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(F25-'Вложения в акции'!F25)&lt;1,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2404,8 +2255,8 @@
         <v>-32.525437500000407</v>
       </c>
       <c r="G26" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!F26:F28)=SUM('Вложения в акции (решение)'!F26:F28),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(F26-'Вложения в акции'!F26)&lt;1,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2433,8 +2284,8 @@
         <v>1697.6875</v>
       </c>
       <c r="G27" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!F27:F29)=SUM('Вложения в акции (решение)'!F27:F29),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(F27-'Вложения в акции'!F27)&lt;1,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,42 +2313,37 @@
         <v>-530.73793750000186</v>
       </c>
       <c r="G28" s="32" t="str">
-        <f>IFERROR(IF(SUM('Вложения в акции'!B28:E28)=SUM('Вложения в акции (решение)'!B28:E28),"верно","не верно"),"не верно")</f>
-        <v>верно</v>
+        <f>IFERROR(IF(ABS(SUM(B28:F28)-SUM('Вложения в акции'!B28:F28))&lt;10,"верно","не верно"),"не верно")</f>
+        <v>не верно</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"решена"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="G13:G15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"верно"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"верно"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G27">
+  <conditionalFormatting sqref="G25:G28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"верно"</formula>
     </cfRule>
